--- a/drugs1.xlsx
+++ b/drugs1.xlsx
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:Q215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/drugs1.xlsx
+++ b/drugs1.xlsx
@@ -1328,16 +1328,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="[$₦-A809]#,##0.00;[RED]\-[$₦-A809]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1397,7 +1400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1406,7 +1409,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1427,13 +1438,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q215"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
@@ -1444,13 +1455,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,13 +1496,13 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -1525,17 +1537,21 @@
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="3" t="n">
         <v>46446</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <f aca="false">K2*M2</f>
+        <v>136850</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,17 +1573,21 @@
       <c r="J3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="3" t="n">
         <v>45869</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <f aca="false">K3*M3</f>
+        <v>121000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,17 +1609,21 @@
       <c r="J4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <f aca="false">K4*M4</f>
+        <v>7250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,17 +1645,21 @@
       <c r="J5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <f aca="false">K5*M5</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,17 +1681,21 @@
       <c r="J6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <f aca="false">K6*M6</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,17 +1717,21 @@
       <c r="J7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>373.75</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <f aca="false">K7*M7</f>
+        <v>18687.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,17 +1753,21 @@
       <c r="J8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <v>406</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <f aca="false">K8*M8</f>
+        <v>1015000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,17 +1789,21 @@
       <c r="J9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>2930</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <f aca="false">K9*M9</f>
+        <v>263700</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,17 +1825,21 @@
       <c r="J10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>1380</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="3" t="n">
         <v>45535</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <f aca="false">K10*M10</f>
+        <v>1001880</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,17 +1861,21 @@
       <c r="J11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>1550</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <f aca="false">K11*M11</f>
+        <v>558000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,17 +1897,21 @@
       <c r="J12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>1400</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <f aca="false">K12*M12</f>
+        <v>2100000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,17 +1930,21 @@
       <c r="J13" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>10296</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <f aca="false">K13*M13</f>
+        <v>514800</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,17 +1966,21 @@
       <c r="J14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <f aca="false">K14*M14</f>
+        <v>45000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,17 +2002,21 @@
       <c r="J15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>580</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <f aca="false">K15*M15</f>
+        <v>5800</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,17 +2038,21 @@
       <c r="J16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>3740</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <f aca="false">K16*M16</f>
+        <v>149600</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,17 +2074,21 @@
       <c r="J17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>2847</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="3" t="n">
         <v>46418</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <f aca="false">K17*M17</f>
+        <v>2135250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,17 +2110,21 @@
       <c r="J18" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>3059</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <v>830</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <f aca="false">K18*M18</f>
+        <v>2538970</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,17 +2146,21 @@
       <c r="J19" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>3792</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="N19" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <f aca="false">K19*M19</f>
+        <v>3792000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,17 +2182,21 @@
       <c r="J20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>2800</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <f aca="false">K20*M20</f>
+        <v>84000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,17 +2218,21 @@
       <c r="J21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <f aca="false">K21*M21</f>
+        <v>153000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,17 +2254,21 @@
       <c r="J22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>770</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="N22" s="3" t="n">
         <v>46507</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <f aca="false">K22*M22</f>
+        <v>1540000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,17 +2290,21 @@
       <c r="J23" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <f aca="false">K23*M23</f>
+        <v>144000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,17 +2323,21 @@
       <c r="J24" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <f aca="false">K24*M24</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,17 +2359,21 @@
       <c r="J25" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="N25" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <f aca="false">K25*M25</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,17 +2395,21 @@
       <c r="J26" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>1250</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <f aca="false">K26*M26</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,17 +2431,21 @@
       <c r="J27" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>1900</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="N27" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <f aca="false">K27*M27</f>
+        <v>57000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,17 +2467,21 @@
       <c r="J28" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>40367</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="N28" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <f aca="false">K28*M28</f>
+        <v>1412845</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,14 +2503,18 @@
       <c r="J29" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>40367</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="N29" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <f aca="false">K29*M29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,17 +2536,21 @@
       <c r="J30" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>680</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <v>420</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <f aca="false">K30*M30</f>
+        <v>285600</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,17 +2569,21 @@
       <c r="J31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="N31" s="3" t="n">
         <v>45535</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <f aca="false">K31*M31</f>
+        <v>6680</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,17 +2605,21 @@
       <c r="J32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <v>770</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="2" t="n">
         <v>460</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <f aca="false">K32*M32</f>
+        <v>354200</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,17 +2641,21 @@
       <c r="J33" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="N33" s="3" t="n">
         <v>46265</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <f aca="false">K33*M33</f>
+        <v>227500</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,17 +2677,21 @@
       <c r="J34" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34" s="2" t="n">
         <v>770</v>
       </c>
-      <c r="N34" s="1" t="n">
+      <c r="N34" s="3" t="n">
         <v>46418</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <f aca="false">K34*M34</f>
+        <v>616000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,14 +2713,18 @@
       <c r="J35" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <v>1572</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="N35" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <f aca="false">K35*M35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,17 +2746,21 @@
       <c r="J36" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="N36" s="3" t="n">
         <v>45535</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <f aca="false">K36*M36</f>
+        <v>2750</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,17 +2782,21 @@
       <c r="J37" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <v>1035</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="N37" s="3" t="n">
         <v>45869</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <f aca="false">K37*M37</f>
+        <v>82800</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,17 +2818,21 @@
       <c r="J38" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <v>687.5</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38" s="2" t="n">
         <v>680</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" s="3" t="n">
         <v>47026</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <f aca="false">K38*M38</f>
+        <v>467500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,17 +2854,21 @@
       <c r="J39" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <v>790</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="N39" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <f aca="false">K39*M39</f>
+        <v>1580000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,17 +2890,21 @@
       <c r="J40" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="1" t="n">
         <v>4300</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="N40" s="1" t="n">
+      <c r="N40" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <f aca="false">K40*M40</f>
+        <v>184900</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,14 +2926,18 @@
       <c r="J41" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="1" t="n">
         <v>21353</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="N41" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <f aca="false">K41*M41</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,17 +2959,21 @@
       <c r="J42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="1" t="n">
         <v>437.5</v>
       </c>
-      <c r="M42" s="0" t="n">
+      <c r="M42" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="N42" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <f aca="false">K42*M42</f>
+        <v>43750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,17 +2995,21 @@
       <c r="J43" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="N43" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <f aca="false">K43*M43</f>
+        <v>122000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,17 +3031,21 @@
       <c r="J44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="1" t="n">
         <v>117.8</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="N44" s="1" t="n">
+      <c r="N44" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <f aca="false">K44*M44</f>
+        <v>4712000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,17 +3067,21 @@
       <c r="J45" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <v>7290</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45" s="2" t="n">
         <v>820</v>
       </c>
-      <c r="N45" s="1" t="n">
+      <c r="N45" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <f aca="false">K45*M45</f>
+        <v>5977800</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,17 +3103,21 @@
       <c r="J46" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <v>1223.75</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N46" s="1" t="n">
+      <c r="N46" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <f aca="false">K46*M46</f>
+        <v>7342.5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,17 +3136,21 @@
       <c r="J47" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="1" t="n">
         <v>751.3</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M47" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N47" s="1" t="n">
+      <c r="N47" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <f aca="false">K47*M47</f>
+        <v>5259.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,17 +3172,21 @@
       <c r="J48" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="M48" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="N48" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <f aca="false">K48*M48</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,17 +3208,21 @@
       <c r="J49" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="1" t="n">
         <v>9900</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="M49" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="N49" s="1" t="n">
+      <c r="N49" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <f aca="false">K49*M49</f>
+        <v>3960000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,17 +3244,21 @@
       <c r="J50" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="1" t="n">
         <v>5700</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="M50" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="N50" s="1" t="n">
+      <c r="N50" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <f aca="false">K50*M50</f>
+        <v>598500</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,17 +3280,21 @@
       <c r="J51" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="M51" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="N51" s="1" t="n">
+      <c r="N51" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <f aca="false">K51*M51</f>
+        <v>207750</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,17 +3316,21 @@
       <c r="J52" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="M52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N52" s="1" t="n">
+      <c r="N52" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <f aca="false">K52*M52</f>
+        <v>4900</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,17 +3352,21 @@
       <c r="J53" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <v>3295</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="M53" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N53" s="1" t="n">
+      <c r="N53" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <f aca="false">K53*M53</f>
+        <v>49425</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,17 +3388,21 @@
       <c r="J54" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <v>4160</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="M54" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N54" s="1" t="n">
+      <c r="N54" s="3" t="n">
         <v>45565</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <f aca="false">K54*M54</f>
+        <v>208000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,17 +3424,21 @@
       <c r="J55" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <v>3700</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="M55" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="N55" s="1" t="n">
+      <c r="N55" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <f aca="false">K55*M55</f>
+        <v>166500</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,17 +3460,21 @@
       <c r="J56" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <v>8030</v>
       </c>
-      <c r="M56" s="0" t="n">
+      <c r="M56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N56" s="1" t="n">
+      <c r="N56" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <f aca="false">K56*M56</f>
+        <v>803000</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,17 +3496,21 @@
       <c r="J57" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="1" t="n">
         <v>2700</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="M57" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N57" s="1" t="n">
+      <c r="N57" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <f aca="false">K57*M57</f>
+        <v>81000</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,17 +3532,21 @@
       <c r="J58" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="M58" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N58" s="1" t="n">
+      <c r="N58" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <f aca="false">K58*M58</f>
+        <v>80000</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,17 +3568,21 @@
       <c r="J59" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="M59" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="N59" s="1" t="n">
+      <c r="N59" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <f aca="false">K59*M59</f>
+        <v>43400</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,17 +3604,21 @@
       <c r="J60" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="M60" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N60" s="1" t="n">
+      <c r="N60" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <f aca="false">K60*M60</f>
+        <v>3500</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,17 +3640,21 @@
       <c r="J61" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="1" t="n">
         <v>430</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="M61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="N61" s="1" t="n">
+      <c r="N61" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <f aca="false">K61*M61</f>
+        <v>1720</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,17 +3676,21 @@
       <c r="J62" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1" t="n">
+      <c r="M62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O62" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <f aca="false">K62*M62</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,17 +3712,21 @@
       <c r="J63" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="M63" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N63" s="1" t="n">
+      <c r="N63" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O63" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <f aca="false">K63*M63</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,17 +3748,21 @@
       <c r="J64" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="1" t="n">
         <v>850</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="M64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="N64" s="1" t="n">
+      <c r="N64" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <f aca="false">K64*M64</f>
+        <v>18700</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,17 +3784,21 @@
       <c r="J65" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="1" t="n">
         <v>6494</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="M65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N65" s="1" t="n">
+      <c r="N65" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O65" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <f aca="false">K65*M65</f>
+        <v>64940</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,17 +3820,21 @@
       <c r="J66" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66" s="1" t="n">
         <v>34000</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N66" s="1" t="n">
+      <c r="N66" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O66" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <f aca="false">K66*M66</f>
+        <v>2720000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,17 +3853,21 @@
       <c r="J67" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="1" t="n">
         <v>3250</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="M67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="N67" s="1" t="n">
+      <c r="N67" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O67" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <f aca="false">K67*M67</f>
+        <v>22750</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,17 +3889,21 @@
       <c r="J68" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N68" s="1" t="n">
+      <c r="N68" s="3" t="n">
         <v>45565</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <f aca="false">K68*M68</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,17 +3922,21 @@
       <c r="J69" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="M69" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N69" s="1" t="n">
+      <c r="N69" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <f aca="false">K69*M69</f>
+        <v>10200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,17 +3955,21 @@
       <c r="J70" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="M70" s="0" t="n">
+      <c r="M70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N70" s="1" t="n">
+      <c r="N70" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O70" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <f aca="false">K70*M70</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,17 +3988,21 @@
       <c r="J71" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="K71" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="M71" s="0" t="n">
+      <c r="M71" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N71" s="1" t="n">
+      <c r="N71" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O71" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <f aca="false">K71*M71</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,17 +4021,21 @@
       <c r="J72" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="K72" s="1" t="n">
         <v>980</v>
       </c>
-      <c r="M72" s="0" t="n">
+      <c r="M72" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="N72" s="1" t="n">
+      <c r="N72" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <f aca="false">K72*M72</f>
+        <v>142100</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,17 +4054,21 @@
       <c r="J73" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="M73" s="0" t="n">
+      <c r="M73" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="N73" s="1" t="n">
+      <c r="N73" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="O73" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <f aca="false">K73*M73</f>
+        <v>42000</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,17 +4087,21 @@
       <c r="J74" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="M74" s="0" t="n">
+      <c r="M74" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="N74" s="1" t="n">
+      <c r="N74" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O74" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <f aca="false">K74*M74</f>
+        <v>14250</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,17 +4120,21 @@
       <c r="J75" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="M75" s="0" t="n">
+      <c r="M75" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="N75" s="1" t="n">
+      <c r="N75" s="3" t="n">
         <v>46538</v>
       </c>
       <c r="O75" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <f aca="false">K75*M75</f>
+        <v>192500</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,17 +4153,21 @@
       <c r="J76" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K76" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="M76" s="0" t="n">
+      <c r="M76" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="N76" s="1" t="n">
+      <c r="N76" s="3" t="n">
         <v>46507</v>
       </c>
       <c r="O76" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <f aca="false">K76*M76</f>
+        <v>158400</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,17 +4186,21 @@
       <c r="J77" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="K77" s="1" t="n">
         <v>1320</v>
       </c>
-      <c r="M77" s="0" t="n">
+      <c r="M77" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="N77" s="1" t="n">
+      <c r="N77" s="3" t="n">
         <v>46507</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <f aca="false">K77*M77</f>
+        <v>171600</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,17 +4219,21 @@
       <c r="J78" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="M78" s="0" t="n">
+      <c r="M78" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="N78" s="1" t="n">
+      <c r="N78" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O78" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <f aca="false">K78*M78</f>
+        <v>180000</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,17 +4252,21 @@
       <c r="J79" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="M79" s="0" t="n">
+      <c r="M79" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="N79" s="1" t="n">
+      <c r="N79" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O79" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <f aca="false">K79*M79</f>
+        <v>510000</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,17 +4285,21 @@
       <c r="J80" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="M80" s="0" t="n">
+      <c r="M80" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N80" s="1" t="n">
+      <c r="N80" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O80" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <f aca="false">K80*M80</f>
+        <v>185000</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,17 +4318,21 @@
       <c r="J81" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M81" s="0" t="n">
+      <c r="M81" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N81" s="1" t="n">
+      <c r="N81" s="3" t="n">
         <v>45869</v>
       </c>
       <c r="O81" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <f aca="false">K81*M81</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,17 +4351,21 @@
       <c r="J82" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="K82" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="M82" s="0" t="n">
+      <c r="M82" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="N82" s="1" t="n">
+      <c r="N82" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="O82" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <f aca="false">K82*M82</f>
+        <v>10350</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,17 +4384,21 @@
       <c r="J83" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="1" t="n">
         <v>950</v>
       </c>
-      <c r="M83" s="0" t="n">
+      <c r="M83" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N83" s="1" t="n">
+      <c r="N83" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="O83" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <f aca="false">K83*M83</f>
+        <v>95000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,17 +4417,21 @@
       <c r="J84" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="M84" s="0" t="n">
+      <c r="M84" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="N84" s="1" t="n">
+      <c r="N84" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="O84" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <f aca="false">K84*M84</f>
+        <v>200000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,17 +4450,21 @@
       <c r="J85" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K85" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="M85" s="0" t="n">
+      <c r="M85" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="N85" s="1" t="n">
+      <c r="N85" s="3" t="n">
         <v>46538</v>
       </c>
       <c r="O85" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <f aca="false">K85*M85</f>
+        <v>229900</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,17 +4483,21 @@
       <c r="J86" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86" s="1" t="n">
         <v>3300</v>
       </c>
-      <c r="M86" s="0" t="n">
+      <c r="M86" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="N86" s="1" t="n">
+      <c r="N86" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O86" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <f aca="false">K86*M86</f>
+        <v>660000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4164,17 +4516,21 @@
       <c r="J87" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="K87" s="0" t="n">
+      <c r="K87" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="M87" s="0" t="n">
+      <c r="M87" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N87" s="1" t="n">
+      <c r="N87" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O87" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <f aca="false">K87*M87</f>
+        <v>7800</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,17 +4549,21 @@
       <c r="J88" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="M88" s="0" t="n">
+      <c r="M88" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N88" s="1" t="n">
+      <c r="N88" s="3" t="n">
         <v>46446</v>
       </c>
       <c r="O88" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <f aca="false">K88*M88</f>
+        <v>80000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,17 +4582,21 @@
       <c r="J89" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="M89" s="0" t="n">
+      <c r="M89" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="N89" s="1" t="n">
+      <c r="N89" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O89" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <f aca="false">K89*M89</f>
+        <v>232500</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,17 +4615,21 @@
       <c r="J90" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="M90" s="0" t="n">
+      <c r="M90" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N90" s="1" t="n">
+      <c r="N90" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O90" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <f aca="false">K90*M90</f>
+        <v>9120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,17 +4648,21 @@
       <c r="J91" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K91" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="M91" s="0" t="n">
+      <c r="M91" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="N91" s="1" t="n">
+      <c r="N91" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O91" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <f aca="false">K91*M91</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,17 +4681,21 @@
       <c r="J92" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="M92" s="0" t="n">
+      <c r="M92" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N92" s="1" t="n">
+      <c r="N92" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O92" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <f aca="false">K92*M92</f>
+        <v>950</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,17 +4714,21 @@
       <c r="J93" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="M93" s="0" t="n">
+      <c r="M93" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N93" s="1" t="n">
+      <c r="N93" s="3" t="n">
         <v>46173</v>
       </c>
       <c r="O93" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R93" s="1" t="n">
+        <f aca="false">K93*M93</f>
+        <v>1650</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,17 +4747,21 @@
       <c r="J94" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="K94" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="M94" s="0" t="n">
+      <c r="M94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="N94" s="1" t="n">
+      <c r="N94" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O94" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <f aca="false">K94*M94</f>
+        <v>16500</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,17 +4780,21 @@
       <c r="J95" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="M95" s="0" t="n">
+      <c r="M95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N95" s="1" t="n">
+      <c r="N95" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O95" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R95" s="1" t="n">
+        <f aca="false">K95*M95</f>
+        <v>3800</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,17 +4810,21 @@
       <c r="J96" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="M96" s="0" t="n">
+      <c r="M96" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N96" s="1" t="n">
+      <c r="N96" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="O96" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R96" s="1" t="n">
+        <f aca="false">K96*M96</f>
+        <v>75000</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,17 +4840,21 @@
       <c r="J97" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M97" s="0" t="n">
+      <c r="M97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N97" s="1" t="n">
+      <c r="N97" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="O97" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R97" s="1" t="n">
+        <f aca="false">K97*M97</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,17 +4873,21 @@
       <c r="J98" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="K98" s="1" t="n">
         <v>3800</v>
       </c>
-      <c r="M98" s="0" t="n">
+      <c r="M98" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="N98" s="1" t="n">
+      <c r="N98" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O98" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <f aca="false">K98*M98</f>
+        <v>209000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,17 +4906,21 @@
       <c r="J99" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99" s="1" t="n">
         <v>6250</v>
       </c>
-      <c r="M99" s="0" t="n">
+      <c r="M99" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="N99" s="1" t="n">
+      <c r="N99" s="3" t="n">
         <v>45504</v>
       </c>
       <c r="O99" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <f aca="false">K99*M99</f>
+        <v>131250</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,17 +4939,21 @@
       <c r="J100" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100" s="1" t="n">
         <v>1227</v>
       </c>
-      <c r="M100" s="0" t="n">
+      <c r="M100" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N100" s="1" t="n">
+      <c r="N100" s="3" t="n">
         <v>46507</v>
       </c>
       <c r="O100" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <f aca="false">K100*M100</f>
+        <v>73620</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,17 +4969,21 @@
       <c r="J101" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="M101" s="0" t="n">
+      <c r="M101" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="N101" s="1" t="n">
+      <c r="N101" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O101" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <f aca="false">K101*M101</f>
+        <v>75360</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,17 +5002,21 @@
       <c r="J102" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="K102" s="1" t="n">
         <v>7245</v>
       </c>
-      <c r="M102" s="0" t="n">
+      <c r="M102" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="N102" s="1" t="n">
+      <c r="N102" s="3" t="n">
         <v>45565</v>
       </c>
       <c r="O102" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <f aca="false">K102*M102</f>
+        <v>1318590</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,17 +5038,21 @@
       <c r="J103" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="M103" s="0" t="n">
+      <c r="M103" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="N103" s="1" t="n">
+      <c r="N103" s="3" t="n">
         <v>46173</v>
       </c>
       <c r="O103" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <f aca="false">K103*M103</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,17 +5074,21 @@
       <c r="J104" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="M104" s="0" t="n">
+      <c r="M104" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N104" s="1" t="n">
+      <c r="N104" s="3" t="n">
         <v>46173</v>
       </c>
       <c r="O104" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <f aca="false">K104*M104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,17 +5107,21 @@
       <c r="J105" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="K105" s="1" t="n">
         <v>4950</v>
       </c>
-      <c r="M105" s="0" t="n">
+      <c r="M105" s="2" t="n">
         <v>488</v>
       </c>
-      <c r="N105" s="1" t="n">
+      <c r="N105" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O105" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <f aca="false">K105*M105</f>
+        <v>2415600</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,17 +5140,21 @@
       <c r="J106" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="K106" s="1" t="n">
         <v>935</v>
       </c>
-      <c r="M106" s="0" t="n">
+      <c r="M106" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="N106" s="1" t="n">
+      <c r="N106" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O106" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R106" s="1" t="n">
+        <f aca="false">K106*M106</f>
+        <v>233750</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,17 +5176,21 @@
       <c r="J107" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107" s="1" t="n">
         <v>4400</v>
       </c>
-      <c r="M107" s="0" t="n">
+      <c r="M107" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N107" s="1" t="n">
+      <c r="N107" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="O107" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <f aca="false">K107*M107</f>
+        <v>440000</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,17 +5209,21 @@
       <c r="J108" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="K108" s="0" t="n">
+      <c r="K108" s="1" t="n">
         <v>4539</v>
       </c>
-      <c r="M108" s="0" t="n">
+      <c r="M108" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="N108" s="1" t="n">
+      <c r="N108" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O108" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <f aca="false">K108*M108</f>
+        <v>13617000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,17 +5245,21 @@
       <c r="J109" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="M109" s="0" t="n">
+      <c r="M109" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N109" s="1" t="n">
+      <c r="N109" s="3" t="n">
         <v>45657</v>
       </c>
       <c r="O109" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R109" s="1" t="n">
+        <f aca="false">K109*M109</f>
+        <v>27000</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,17 +5278,21 @@
       <c r="J110" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="M110" s="0" t="n">
+      <c r="M110" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N110" s="1" t="n">
+      <c r="N110" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O110" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <f aca="false">K110*M110</f>
+        <v>80000</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,17 +5314,21 @@
       <c r="J111" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="1" t="n">
         <v>29098</v>
       </c>
-      <c r="M111" s="0" t="n">
+      <c r="M111" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N111" s="1" t="n">
+      <c r="N111" s="3" t="n">
         <v>46173</v>
       </c>
       <c r="O111" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R111" s="1" t="n">
+        <f aca="false">K111*M111</f>
+        <v>2327840</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,17 +5350,21 @@
       <c r="J112" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="1" t="n">
         <v>9800</v>
       </c>
-      <c r="M112" s="0" t="n">
+      <c r="M112" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N112" s="1" t="n">
+      <c r="N112" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O112" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R112" s="1" t="n">
+        <f aca="false">K112*M112</f>
+        <v>784000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,17 +5386,21 @@
       <c r="J113" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113" s="1" t="n">
         <v>7800</v>
       </c>
-      <c r="M113" s="0" t="n">
+      <c r="M113" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="N113" s="1" t="n">
+      <c r="N113" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O113" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R113" s="1" t="n">
+        <f aca="false">K113*M113</f>
+        <v>46800</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,17 +5422,21 @@
       <c r="J114" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114" s="1" t="n">
         <v>12000</v>
       </c>
-      <c r="M114" s="0" t="n">
+      <c r="M114" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="N114" s="1" t="n">
+      <c r="N114" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O114" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R114" s="1" t="n">
+        <f aca="false">K114*M114</f>
+        <v>264000</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,17 +5455,21 @@
       <c r="J115" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115" s="1" t="n">
         <v>9867</v>
       </c>
-      <c r="M115" s="0" t="n">
+      <c r="M115" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N115" s="1" t="n">
+      <c r="N115" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O115" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R115" s="1" t="n">
+        <f aca="false">K115*M115</f>
+        <v>789360</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,17 +5488,21 @@
       <c r="J116" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="M116" s="0" t="n">
+      <c r="M116" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N116" s="1" t="n">
+      <c r="N116" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="O116" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R116" s="1" t="n">
+        <f aca="false">K116*M116</f>
+        <v>195000</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,17 +5524,21 @@
       <c r="J117" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="K117" s="0" t="n">
+      <c r="K117" s="1" t="n">
         <v>1120</v>
       </c>
-      <c r="M117" s="0" t="n">
+      <c r="M117" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="N117" s="1" t="n">
+      <c r="N117" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O117" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R117" s="1" t="n">
+        <f aca="false">K117*M117</f>
+        <v>224000</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,14 +5560,18 @@
       <c r="J118" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="K118" s="0" t="n">
+      <c r="K118" s="1" t="n">
         <v>1120</v>
       </c>
-      <c r="N118" s="1" t="n">
+      <c r="N118" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="O118" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R118" s="1" t="n">
+        <f aca="false">K118*M118</f>
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,17 +5590,21 @@
       <c r="J119" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K119" s="0" t="n">
+      <c r="K119" s="1" t="n">
         <v>1050</v>
       </c>
-      <c r="M119" s="0" t="n">
+      <c r="M119" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="N119" s="1" t="n">
+      <c r="N119" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O119" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R119" s="1" t="n">
+        <f aca="false">K119*M119</f>
+        <v>126000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,17 +5626,21 @@
       <c r="J120" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="K120" s="1" t="n">
         <v>5600</v>
       </c>
-      <c r="M120" s="0" t="n">
+      <c r="M120" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N120" s="1" t="n">
+      <c r="N120" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O120" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R120" s="1" t="n">
+        <f aca="false">K120*M120</f>
+        <v>168000</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,17 +5662,21 @@
       <c r="J121" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K121" s="0" t="n">
+      <c r="K121" s="1" t="n">
         <v>6668.5</v>
       </c>
-      <c r="M121" s="0" t="n">
+      <c r="M121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N121" s="1" t="n">
+      <c r="N121" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O121" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R121" s="1" t="n">
+        <f aca="false">K121*M121</f>
+        <v>66685</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,17 +5698,21 @@
       <c r="J122" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K122" s="0" t="n">
+      <c r="K122" s="1" t="n">
         <v>1590.88</v>
       </c>
-      <c r="M122" s="0" t="n">
+      <c r="M122" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="N122" s="1" t="n">
+      <c r="N122" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O122" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R122" s="1" t="n">
+        <f aca="false">K122*M122</f>
+        <v>44544.64</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,17 +5734,21 @@
       <c r="J123" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K123" s="1" t="n">
         <v>1265</v>
       </c>
-      <c r="M123" s="0" t="n">
+      <c r="M123" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="N123" s="1" t="n">
+      <c r="N123" s="3" t="n">
         <v>45869</v>
       </c>
       <c r="O123" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R123" s="1" t="n">
+        <f aca="false">K123*M123</f>
+        <v>107525</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,17 +5770,21 @@
       <c r="J124" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="K124" s="0" t="n">
+      <c r="K124" s="1" t="n">
         <v>1455</v>
       </c>
-      <c r="M124" s="0" t="n">
+      <c r="M124" s="2" t="n">
         <v>2820</v>
       </c>
-      <c r="N124" s="1" t="n">
+      <c r="N124" s="3" t="n">
         <v>46295</v>
       </c>
       <c r="O124" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R124" s="1" t="n">
+        <f aca="false">K124*M124</f>
+        <v>4103100</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,17 +5806,21 @@
       <c r="J125" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K125" s="0" t="n">
+      <c r="K125" s="1" t="n">
         <v>554.85</v>
       </c>
-      <c r="M125" s="0" t="n">
+      <c r="M125" s="2" t="n">
         <v>4440</v>
       </c>
-      <c r="N125" s="1" t="n">
+      <c r="N125" s="3" t="n">
         <v>46446</v>
       </c>
       <c r="O125" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R125" s="1" t="n">
+        <f aca="false">K125*M125</f>
+        <v>2463534</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,17 +5842,21 @@
       <c r="J126" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="K126" s="0" t="n">
+      <c r="K126" s="1" t="n">
         <v>1150</v>
       </c>
-      <c r="M126" s="0" t="n">
+      <c r="M126" s="2" t="n">
         <v>3900</v>
       </c>
-      <c r="N126" s="1" t="n">
+      <c r="N126" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O126" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R126" s="1" t="n">
+        <f aca="false">K126*M126</f>
+        <v>4485000</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,21 +5878,25 @@
       <c r="J127" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="K127" s="0" t="n">
+      <c r="K127" s="1" t="n">
         <v>1038.3</v>
       </c>
-      <c r="M127" s="0" t="n">
+      <c r="M127" s="2" t="n">
         <v>1250</v>
       </c>
-      <c r="N127" s="1" t="n">
+      <c r="N127" s="3" t="n">
         <v>46477</v>
       </c>
       <c r="O127" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R127" s="1" t="n">
+        <f aca="false">K127*M127</f>
+        <v>1297875</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E128" s="0" t="s">
@@ -5398,15 +5914,19 @@
       <c r="J128" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K128" s="0" t="n">
+      <c r="K128" s="1" t="n">
         <v>500</v>
       </c>
       <c r="O128" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R128" s="1" t="n">
+        <f aca="false">K128*M128</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="4" t="s">
         <v>303</v>
       </c>
       <c r="E129" s="0" t="s">
@@ -5424,21 +5944,25 @@
       <c r="J129" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K129" s="0" t="n">
+      <c r="K129" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="M129" s="0" t="n">
+      <c r="M129" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N129" s="1" t="n">
+      <c r="N129" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O129" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R129" s="1" t="n">
+        <f aca="false">K129*M129</f>
+        <v>49500</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="4" t="s">
         <v>304</v>
       </c>
       <c r="E130" s="0" t="s">
@@ -5456,21 +5980,25 @@
       <c r="J130" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K130" s="0" t="n">
+      <c r="K130" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="M130" s="0" t="n">
+      <c r="M130" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="N130" s="1" t="n">
+      <c r="N130" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="O130" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R130" s="1" t="n">
+        <f aca="false">K130*M130</f>
+        <v>31500</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="4" t="s">
         <v>304</v>
       </c>
       <c r="E131" s="0" t="s">
@@ -5488,21 +6016,25 @@
       <c r="J131" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K131" s="0" t="n">
+      <c r="K131" s="1" t="n">
         <v>422.33</v>
       </c>
-      <c r="M131" s="0" t="n">
+      <c r="M131" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="N131" s="1" t="n">
+      <c r="N131" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O131" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R131" s="1" t="n">
+        <f aca="false">K131*M131</f>
+        <v>31674.75</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E132" s="0" t="s">
@@ -5520,18 +6052,22 @@
       <c r="J132" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K132" s="0" t="n">
+      <c r="K132" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="N132" s="1" t="n">
+      <c r="N132" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="O132" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R132" s="1" t="n">
+        <f aca="false">K132*M132</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="4" t="s">
         <v>306</v>
       </c>
       <c r="E133" s="0" t="s">
@@ -5549,21 +6085,25 @@
       <c r="J133" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K133" s="0" t="n">
+      <c r="K133" s="1" t="n">
         <v>580</v>
       </c>
-      <c r="M133" s="0" t="n">
+      <c r="M133" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="N133" s="1" t="n">
+      <c r="N133" s="3" t="n">
         <v>46418</v>
       </c>
       <c r="O133" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R133" s="1" t="n">
+        <f aca="false">K133*M133</f>
+        <v>197200</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="4" t="s">
         <v>303</v>
       </c>
       <c r="E134" s="0" t="s">
@@ -5581,21 +6121,25 @@
       <c r="J134" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K134" s="0" t="n">
+      <c r="K134" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="M134" s="0" t="n">
+      <c r="M134" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N134" s="1" t="n">
+      <c r="N134" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O134" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R134" s="1" t="n">
+        <f aca="false">K134*M134</f>
+        <v>33000</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E135" s="0" t="s">
@@ -5613,17 +6157,21 @@
       <c r="J135" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K135" s="0" t="n">
+      <c r="K135" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="M135" s="0" t="n">
+      <c r="M135" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N135" s="1" t="n">
+      <c r="N135" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O135" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R135" s="1" t="n">
+        <f aca="false">K135*M135</f>
+        <v>11000</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,17 +6193,21 @@
       <c r="J136" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="K136" s="0" t="n">
+      <c r="K136" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="M136" s="0" t="n">
+      <c r="M136" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="N136" s="1" t="n">
+      <c r="N136" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O136" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R136" s="1" t="n">
+        <f aca="false">K136*M136</f>
+        <v>164250</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,17 +6229,21 @@
       <c r="J137" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K137" s="0" t="n">
+      <c r="K137" s="1" t="n">
         <v>416.56</v>
       </c>
-      <c r="M137" s="0" t="n">
+      <c r="M137" s="2" t="n">
         <v>2400</v>
       </c>
-      <c r="N137" s="1" t="n">
+      <c r="N137" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O137" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R137" s="1" t="n">
+        <f aca="false">K137*M137</f>
+        <v>999744</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,17 +6265,21 @@
       <c r="J138" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K138" s="0" t="n">
+      <c r="K138" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="M138" s="0" t="n">
+      <c r="M138" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="N138" s="1" t="n">
+      <c r="N138" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O138" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R138" s="1" t="n">
+        <f aca="false">K138*M138</f>
+        <v>168000</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,17 +6298,21 @@
       <c r="J139" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K139" s="0" t="n">
+      <c r="K139" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="M139" s="0" t="n">
+      <c r="M139" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="N139" s="1" t="n">
+      <c r="N139" s="3" t="n">
         <v>46265</v>
       </c>
       <c r="O139" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R139" s="1" t="n">
+        <f aca="false">K139*M139</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,17 +6331,21 @@
       <c r="J140" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K140" s="0" t="n">
+      <c r="K140" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="M140" s="0" t="n">
+      <c r="M140" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="N140" s="1" t="n">
+      <c r="N140" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O140" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R140" s="1" t="n">
+        <f aca="false">K140*M140</f>
+        <v>59400</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,17 +6364,21 @@
       <c r="J141" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K141" s="0" t="n">
+      <c r="K141" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="M141" s="0" t="n">
+      <c r="M141" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="N141" s="1" t="n">
+      <c r="N141" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O141" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R141" s="1" t="n">
+        <f aca="false">K141*M141</f>
+        <v>57500</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,17 +6397,21 @@
       <c r="J142" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="K142" s="0" t="n">
+      <c r="K142" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="M142" s="0" t="n">
+      <c r="M142" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="N142" s="1" t="n">
+      <c r="N142" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="O142" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R142" s="1" t="n">
+        <f aca="false">K142*M142</f>
+        <v>118800</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,17 +6427,21 @@
       <c r="J143" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K143" s="0" t="n">
+      <c r="K143" s="1" t="n">
         <v>660</v>
       </c>
-      <c r="M143" s="0" t="n">
+      <c r="M143" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N143" s="1" t="n">
+      <c r="N143" s="3" t="n">
         <v>46691</v>
       </c>
       <c r="O143" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R143" s="1" t="n">
+        <f aca="false">K143*M143</f>
+        <v>66000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,17 +6457,21 @@
       <c r="J144" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K144" s="0" t="n">
+      <c r="K144" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="M144" s="0" t="n">
+      <c r="M144" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="N144" s="1" t="n">
+      <c r="N144" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O144" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R144" s="1" t="n">
+        <f aca="false">K144*M144</f>
+        <v>208000</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,17 +6487,21 @@
       <c r="J145" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K145" s="0" t="n">
+      <c r="K145" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="M145" s="0" t="n">
+      <c r="M145" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="N145" s="1" t="n">
+      <c r="N145" s="3" t="n">
         <v>46418</v>
       </c>
       <c r="O145" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R145" s="1" t="n">
+        <f aca="false">K145*M145</f>
+        <v>83160</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,17 +6517,21 @@
       <c r="J146" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="K146" s="0" t="n">
+      <c r="K146" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="M146" s="0" t="n">
+      <c r="M146" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="N146" s="1" t="n">
+      <c r="N146" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="O146" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R146" s="1" t="n">
+        <f aca="false">K146*M146</f>
+        <v>46200</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,17 +6547,21 @@
       <c r="J147" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="K147" s="0" t="n">
+      <c r="K147" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="M147" s="0" t="n">
+      <c r="M147" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N147" s="1" t="n">
+      <c r="N147" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O147" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R147" s="1" t="n">
+        <f aca="false">K147*M147</f>
+        <v>5865</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,17 +6577,21 @@
       <c r="J148" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="K148" s="0" t="n">
+      <c r="K148" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="M148" s="0" t="n">
+      <c r="M148" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="N148" s="1" t="n">
+      <c r="N148" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O148" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R148" s="1" t="n">
+        <f aca="false">K148*M148</f>
+        <v>22000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,17 +6607,21 @@
       <c r="J149" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="K149" s="0" t="n">
+      <c r="K149" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="M149" s="0" t="n">
+      <c r="M149" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="N149" s="1" t="n">
+      <c r="N149" s="3" t="n">
         <v>46418</v>
       </c>
       <c r="O149" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R149" s="1" t="n">
+        <f aca="false">K149*M149</f>
+        <v>22820</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,17 +6637,21 @@
       <c r="J150" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="K150" s="0" t="n">
+      <c r="K150" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="M150" s="0" t="n">
+      <c r="M150" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="N150" s="1" t="n">
+      <c r="N150" s="3" t="n">
         <v>45504</v>
       </c>
       <c r="O150" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R150" s="1" t="n">
+        <f aca="false">K150*M150</f>
+        <v>26125</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,17 +6667,21 @@
       <c r="J151" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="K151" s="0" t="n">
+      <c r="K151" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="M151" s="0" t="n">
+      <c r="M151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N151" s="1" t="n">
+      <c r="N151" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="O151" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R151" s="1" t="n">
+        <f aca="false">K151*M151</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,17 +6697,21 @@
       <c r="J152" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="K152" s="0" t="n">
+      <c r="K152" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M152" s="0" t="n">
+      <c r="M152" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N152" s="1" t="n">
+      <c r="N152" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O152" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R152" s="1" t="n">
+        <f aca="false">K152*M152</f>
+        <v>24000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,17 +6727,21 @@
       <c r="J153" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="K153" s="0" t="n">
+      <c r="K153" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="M153" s="0" t="n">
+      <c r="M153" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="N153" s="1" t="n">
+      <c r="N153" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O153" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R153" s="1" t="n">
+        <f aca="false">K153*M153</f>
+        <v>70000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,17 +6763,21 @@
       <c r="J154" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K154" s="0" t="n">
+      <c r="K154" s="1" t="n">
         <v>18350</v>
       </c>
-      <c r="M154" s="0" t="n">
+      <c r="M154" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="N154" s="1" t="n">
+      <c r="N154" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O154" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R154" s="1" t="n">
+        <f aca="false">K154*M154</f>
+        <v>1688200</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,14 +6799,18 @@
       <c r="J155" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K155" s="0" t="n">
+      <c r="K155" s="1" t="n">
         <v>7260</v>
       </c>
-      <c r="M155" s="0" t="n">
+      <c r="M155" s="2" t="n">
         <v>936</v>
       </c>
       <c r="O155" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R155" s="1" t="n">
+        <f aca="false">K155*M155</f>
+        <v>6795360</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,17 +6826,21 @@
       <c r="J156" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K156" s="0" t="n">
+      <c r="K156" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="M156" s="0" t="n">
+      <c r="M156" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="N156" s="1" t="n">
+      <c r="N156" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O156" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R156" s="1" t="n">
+        <f aca="false">K156*M156</f>
+        <v>33000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,14 +6862,18 @@
       <c r="J157" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K157" s="0" t="n">
+      <c r="K157" s="1" t="n">
         <v>5234</v>
       </c>
-      <c r="M157" s="0" t="n">
+      <c r="M157" s="2" t="n">
         <v>3003</v>
       </c>
       <c r="O157" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R157" s="1" t="n">
+        <f aca="false">K157*M157</f>
+        <v>15717702</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,17 +6895,21 @@
       <c r="J158" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K158" s="0" t="n">
+      <c r="K158" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="M158" s="0" t="n">
+      <c r="M158" s="2" t="n">
         <v>1440</v>
       </c>
-      <c r="N158" s="1" t="n">
+      <c r="N158" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O158" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R158" s="1" t="n">
+        <f aca="false">K158*M158</f>
+        <v>792000</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,17 +6931,21 @@
       <c r="J159" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K159" s="0" t="n">
+      <c r="K159" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="M159" s="0" t="n">
+      <c r="M159" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="N159" s="1" t="n">
+      <c r="N159" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O159" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R159" s="1" t="n">
+        <f aca="false">K159*M159</f>
+        <v>700000</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,17 +6967,21 @@
       <c r="J160" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K160" s="0" t="n">
+      <c r="K160" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="M160" s="0" t="n">
+      <c r="M160" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="N160" s="1" t="n">
+      <c r="N160" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O160" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R160" s="1" t="n">
+        <f aca="false">K160*M160</f>
+        <v>650000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,17 +7003,21 @@
       <c r="J161" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K161" s="0" t="n">
+      <c r="K161" s="1" t="n">
         <v>540</v>
       </c>
-      <c r="M161" s="0" t="n">
+      <c r="M161" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="N161" s="1" t="n">
+      <c r="N161" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O161" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R161" s="1" t="n">
+        <f aca="false">K161*M161</f>
+        <v>810000</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,17 +7039,21 @@
       <c r="J162" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K162" s="0" t="n">
+      <c r="K162" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="M162" s="0" t="n">
+      <c r="M162" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="N162" s="1" t="n">
+      <c r="N162" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O162" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R162" s="1" t="n">
+        <f aca="false">K162*M162</f>
+        <v>518400</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,17 +7075,21 @@
       <c r="J163" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K163" s="0" t="n">
+      <c r="K163" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="M163" s="0" t="n">
+      <c r="M163" s="2" t="n">
         <v>2600</v>
       </c>
-      <c r="N163" s="1" t="n">
+      <c r="N163" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="O163" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R163" s="1" t="n">
+        <f aca="false">K163*M163</f>
+        <v>5330000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,17 +7111,21 @@
       <c r="J164" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K164" s="0" t="n">
+      <c r="K164" s="1" t="n">
         <v>1400</v>
       </c>
-      <c r="M164" s="0" t="n">
+      <c r="M164" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="N164" s="1" t="n">
+      <c r="N164" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O164" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R164" s="1" t="n">
+        <f aca="false">K164*M164</f>
+        <v>273000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,14 +7141,18 @@
       <c r="J165" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="K165" s="0" t="n">
+      <c r="K165" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="M165" s="0" t="n">
+      <c r="M165" s="2" t="n">
         <v>62</v>
       </c>
       <c r="O165" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R165" s="1" t="n">
+        <f aca="false">K165*M165</f>
+        <v>2480000</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,14 +7168,18 @@
       <c r="J166" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="K166" s="0" t="n">
+      <c r="K166" s="1" t="n">
         <v>50000</v>
       </c>
-      <c r="M166" s="0" t="n">
+      <c r="M166" s="2" t="n">
         <v>72</v>
       </c>
       <c r="O166" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R166" s="1" t="n">
+        <f aca="false">K166*M166</f>
+        <v>3600000</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,11 +7195,15 @@
       <c r="J167" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="K167" s="0" t="n">
+      <c r="K167" s="1" t="n">
         <v>42000</v>
       </c>
       <c r="O167" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R167" s="1" t="n">
+        <f aca="false">K167*M167</f>
+        <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,17 +7219,21 @@
       <c r="J168" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K168" s="0" t="n">
+      <c r="K168" s="1" t="n">
         <v>854</v>
       </c>
-      <c r="M168" s="0" t="n">
+      <c r="M168" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="N168" s="1" t="n">
+      <c r="N168" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O168" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R168" s="1" t="n">
+        <f aca="false">K168*M168</f>
+        <v>76860</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,14 +7252,18 @@
       <c r="J169" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K169" s="0" t="n">
+      <c r="K169" s="1" t="n">
         <v>4500</v>
       </c>
-      <c r="M169" s="0" t="n">
+      <c r="M169" s="2" t="n">
         <v>92</v>
       </c>
       <c r="O169" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R169" s="1" t="n">
+        <f aca="false">K169*M169</f>
+        <v>414000</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,17 +7282,21 @@
       <c r="J170" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K170" s="0" t="n">
+      <c r="K170" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="M170" s="0" t="n">
+      <c r="M170" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="N170" s="1" t="n">
+      <c r="N170" s="3" t="n">
         <v>46265</v>
       </c>
       <c r="O170" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R170" s="1" t="n">
+        <f aca="false">K170*M170</f>
+        <v>600000</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,17 +7315,21 @@
       <c r="J171" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K171" s="0" t="n">
+      <c r="K171" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="M171" s="0" t="n">
+      <c r="M171" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="N171" s="1" t="n">
+      <c r="N171" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="O171" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R171" s="1" t="n">
+        <f aca="false">K171*M171</f>
+        <v>115600</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,17 +7348,21 @@
       <c r="J172" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K172" s="0" t="n">
+      <c r="K172" s="1" t="n">
         <v>3600</v>
       </c>
-      <c r="M172" s="0" t="n">
+      <c r="M172" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="N172" s="1" t="n">
+      <c r="N172" s="3" t="n">
         <v>46783</v>
       </c>
       <c r="O172" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R172" s="1" t="n">
+        <f aca="false">K172*M172</f>
+        <v>1080000</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,17 +7381,21 @@
       <c r="J173" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K173" s="0" t="n">
+      <c r="K173" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="M173" s="0" t="n">
+      <c r="M173" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="N173" s="1" t="n">
+      <c r="N173" s="3" t="n">
         <v>46446</v>
       </c>
       <c r="O173" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R173" s="1" t="n">
+        <f aca="false">K173*M173</f>
+        <v>227500</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,17 +7411,21 @@
       <c r="J174" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K174" s="0" t="n">
+      <c r="K174" s="1" t="n">
         <v>3700</v>
       </c>
-      <c r="M174" s="0" t="n">
+      <c r="M174" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N174" s="1" t="n">
+      <c r="N174" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O174" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R174" s="1" t="n">
+        <f aca="false">K174*M174</f>
+        <v>37000</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,17 +7444,21 @@
       <c r="J175" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K175" s="0" t="n">
+      <c r="K175" s="1" t="n">
         <v>970</v>
       </c>
-      <c r="M175" s="0" t="n">
+      <c r="M175" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="N175" s="1" t="n">
+      <c r="N175" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O175" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R175" s="1" t="n">
+        <f aca="false">K175*M175</f>
+        <v>485000</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,14 +7477,18 @@
       <c r="J176" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K176" s="0" t="n">
+      <c r="K176" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="N176" s="1" t="n">
+      <c r="N176" s="3" t="n">
         <v>46265</v>
       </c>
       <c r="O176" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R176" s="1" t="n">
+        <f aca="false">K176*M176</f>
+        <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,17 +7510,21 @@
       <c r="J177" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K177" s="0" t="n">
+      <c r="K177" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="M177" s="0" t="n">
+      <c r="M177" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="N177" s="1" t="n">
+      <c r="N177" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O177" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R177" s="1" t="n">
+        <f aca="false">K177*M177</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,17 +7543,21 @@
       <c r="J178" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K178" s="0" t="n">
+      <c r="K178" s="1" t="n">
         <v>1550</v>
       </c>
-      <c r="M178" s="0" t="n">
+      <c r="M178" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="N178" s="1" t="n">
+      <c r="N178" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O178" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R178" s="1" t="n">
+        <f aca="false">K178*M178</f>
+        <v>384400</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6853,21 +7573,25 @@
       <c r="J179" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="K179" s="0" t="n">
+      <c r="K179" s="1" t="n">
         <v>3146</v>
       </c>
-      <c r="M179" s="0" t="n">
+      <c r="M179" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N179" s="1" t="n">
+      <c r="N179" s="3" t="n">
         <v>46142</v>
       </c>
       <c r="O179" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R179" s="1" t="n">
+        <f aca="false">K179*M179</f>
+        <v>125840</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="4" t="s">
         <v>381</v>
       </c>
       <c r="E180" s="0" t="s">
@@ -6882,17 +7606,21 @@
       <c r="J180" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K180" s="0" t="n">
+      <c r="K180" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="M180" s="0" t="n">
+      <c r="M180" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N180" s="1" t="n">
+      <c r="N180" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="O180" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R180" s="1" t="n">
+        <f aca="false">K180*M180</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,17 +7639,21 @@
       <c r="J181" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K181" s="0" t="n">
+      <c r="K181" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="M181" s="0" t="n">
+      <c r="M181" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N181" s="1" t="n">
+      <c r="N181" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O181" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R181" s="1" t="n">
+        <f aca="false">K181*M181</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,17 +7672,21 @@
       <c r="J182" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K182" s="0" t="n">
+      <c r="K182" s="1" t="n">
         <v>1150</v>
       </c>
-      <c r="M182" s="0" t="n">
+      <c r="M182" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="N182" s="1" t="n">
+      <c r="N182" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O182" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R182" s="1" t="n">
+        <f aca="false">K182*M182</f>
+        <v>149500</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,17 +7705,21 @@
       <c r="J183" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K183" s="0" t="n">
+      <c r="K183" s="1" t="n">
         <v>1110</v>
       </c>
-      <c r="M183" s="0" t="n">
+      <c r="M183" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="N183" s="1" t="n">
+      <c r="N183" s="3" t="n">
         <v>45658</v>
       </c>
       <c r="O183" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R183" s="1" t="n">
+        <f aca="false">K183*M183</f>
+        <v>66600</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,17 +7738,21 @@
       <c r="J184" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K184" s="0" t="n">
+      <c r="K184" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="M184" s="0" t="n">
+      <c r="M184" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N184" s="1" t="n">
+      <c r="N184" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O184" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R184" s="1" t="n">
+        <f aca="false">K184*M184</f>
+        <v>36000</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,17 +7768,21 @@
       <c r="J185" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K185" s="0" t="n">
+      <c r="K185" s="1" t="n">
         <v>4500</v>
       </c>
-      <c r="M185" s="0" t="n">
+      <c r="M185" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N185" s="1" t="n">
+      <c r="N185" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O185" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R185" s="1" t="n">
+        <f aca="false">K185*M185</f>
+        <v>40500</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,17 +7804,21 @@
       <c r="J186" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K186" s="0" t="n">
+      <c r="K186" s="1" t="n">
         <v>689</v>
       </c>
-      <c r="M186" s="0" t="n">
+      <c r="M186" s="2" t="n">
         <v>530</v>
       </c>
-      <c r="N186" s="1" t="n">
+      <c r="N186" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O186" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R186" s="1" t="n">
+        <f aca="false">K186*M186</f>
+        <v>365170</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,17 +7834,21 @@
       <c r="J187" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K187" s="0" t="n">
+      <c r="K187" s="1" t="n">
         <v>790</v>
       </c>
-      <c r="M187" s="0" t="n">
+      <c r="M187" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N187" s="1" t="n">
+      <c r="N187" s="3" t="n">
         <v>46356</v>
       </c>
       <c r="O187" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R187" s="1" t="n">
+        <f aca="false">K187*M187</f>
+        <v>39500</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,17 +7864,21 @@
       <c r="J188" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K188" s="0" t="n">
+      <c r="K188" s="1" t="n">
         <v>680</v>
       </c>
-      <c r="M188" s="0" t="n">
+      <c r="M188" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="N188" s="1" t="n">
+      <c r="N188" s="3" t="n">
         <v>46326</v>
       </c>
       <c r="O188" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R188" s="1" t="n">
+        <f aca="false">K188*M188</f>
+        <v>88400</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,17 +7894,21 @@
       <c r="J189" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K189" s="0" t="n">
+      <c r="K189" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="M189" s="0" t="n">
+      <c r="M189" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="N189" s="1" t="n">
+      <c r="N189" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="O189" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R189" s="1" t="n">
+        <f aca="false">K189*M189</f>
+        <v>180000</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7163,17 +7927,21 @@
       <c r="J190" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K190" s="0" t="n">
+      <c r="K190" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="M190" s="0" t="n">
+      <c r="M190" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="N190" s="1" t="n">
+      <c r="N190" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O190" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R190" s="1" t="n">
+        <f aca="false">K190*M190</f>
+        <v>450000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,17 +7960,21 @@
       <c r="J191" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K191" s="0" t="n">
+      <c r="K191" s="1" t="n">
         <v>7000</v>
       </c>
-      <c r="M191" s="0" t="n">
+      <c r="M191" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="N191" s="1" t="n">
+      <c r="N191" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O191" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R191" s="1" t="n">
+        <f aca="false">K191*M191</f>
+        <v>875000</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,17 +7990,21 @@
       <c r="J192" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K192" s="0" t="n">
+      <c r="K192" s="1" t="n">
         <v>2400</v>
       </c>
-      <c r="M192" s="0" t="n">
+      <c r="M192" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N192" s="1" t="n">
+      <c r="N192" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="O192" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R192" s="1" t="n">
+        <f aca="false">K192*M192</f>
+        <v>240000</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,17 +8023,21 @@
       <c r="J193" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K193" s="0" t="n">
+      <c r="K193" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M193" s="0" t="n">
+      <c r="M193" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="N193" s="1" t="n">
+      <c r="N193" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O193" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R193" s="1" t="n">
+        <f aca="false">K193*M193</f>
+        <v>49000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,17 +8053,21 @@
       <c r="J194" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K194" s="0" t="n">
+      <c r="K194" s="1" t="n">
         <v>1080</v>
       </c>
-      <c r="M194" s="0" t="n">
+      <c r="M194" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N194" s="1" t="n">
+      <c r="N194" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="O194" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R194" s="1" t="n">
+        <f aca="false">K194*M194</f>
+        <v>43200</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,17 +8086,21 @@
       <c r="J195" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K195" s="0" t="n">
+      <c r="K195" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="M195" s="0" t="n">
+      <c r="M195" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N195" s="1" t="n">
+      <c r="N195" s="3" t="n">
         <v>46173</v>
       </c>
       <c r="O195" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R195" s="1" t="n">
+        <f aca="false">K195*M195</f>
+        <v>1750</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,17 +8116,21 @@
       <c r="J196" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K196" s="0" t="n">
+      <c r="K196" s="1" t="n">
         <v>850</v>
       </c>
-      <c r="M196" s="0" t="n">
+      <c r="M196" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N196" s="1" t="n">
+      <c r="N196" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="O196" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R196" s="1" t="n">
+        <f aca="false">K196*M196</f>
+        <v>85000</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,17 +8149,21 @@
       <c r="J197" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="K197" s="0" t="n">
+      <c r="K197" s="1" t="n">
         <v>3200</v>
       </c>
-      <c r="M197" s="0" t="n">
+      <c r="M197" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="N197" s="1" t="n">
+      <c r="N197" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O197" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R197" s="1" t="n">
+        <f aca="false">K197*M197</f>
+        <v>182400</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,17 +8182,21 @@
       <c r="J198" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K198" s="0" t="n">
+      <c r="K198" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="M198" s="0" t="n">
+      <c r="M198" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="N198" s="1" t="n">
+      <c r="N198" s="3" t="n">
         <v>46203</v>
       </c>
       <c r="O198" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R198" s="1" t="n">
+        <f aca="false">K198*M198</f>
+        <v>3840</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,17 +8212,21 @@
       <c r="J199" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K199" s="0" t="n">
+      <c r="K199" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="M199" s="0" t="n">
+      <c r="M199" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N199" s="1" t="n">
+      <c r="N199" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="O199" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R199" s="1" t="n">
+        <f aca="false">K199*M199</f>
+        <v>13500</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,17 +8242,21 @@
       <c r="J200" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K200" s="0" t="n">
+      <c r="K200" s="1" t="n">
         <v>2850</v>
       </c>
-      <c r="M200" s="0" t="n">
+      <c r="M200" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="N200" s="1" t="n">
+      <c r="N200" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="O200" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R200" s="1" t="n">
+        <f aca="false">K200*M200</f>
+        <v>213750</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7464,17 +8272,21 @@
       <c r="J201" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K201" s="0" t="n">
+      <c r="K201" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="M201" s="0" t="n">
+      <c r="M201" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="N201" s="1" t="n">
+      <c r="N201" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="O201" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R201" s="1" t="n">
+        <f aca="false">K201*M201</f>
+        <v>8320</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,17 +8302,21 @@
       <c r="J202" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K202" s="0" t="n">
+      <c r="K202" s="1" t="n">
         <v>1875</v>
       </c>
-      <c r="M202" s="0" t="n">
+      <c r="M202" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N202" s="1" t="n">
+      <c r="N202" s="3" t="n">
         <v>46446</v>
       </c>
       <c r="O202" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R202" s="1" t="n">
+        <f aca="false">K202*M202</f>
+        <v>93750</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7516,17 +8332,21 @@
       <c r="J203" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K203" s="0" t="n">
+      <c r="K203" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="M203" s="0" t="n">
+      <c r="M203" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="N203" s="1" t="n">
+      <c r="N203" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O203" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R203" s="1" t="n">
+        <f aca="false">K203*M203</f>
+        <v>36400</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7542,17 +8362,21 @@
       <c r="J204" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K204" s="0" t="n">
+      <c r="K204" s="1" t="n">
         <v>9570</v>
       </c>
-      <c r="M204" s="0" t="n">
+      <c r="M204" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N204" s="1" t="n">
+      <c r="N204" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="O204" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R204" s="1" t="n">
+        <f aca="false">K204*M204</f>
+        <v>143550</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,17 +8395,21 @@
       <c r="J205" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K205" s="0" t="n">
+      <c r="K205" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="M205" s="0" t="n">
+      <c r="M205" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="N205" s="1" t="n">
+      <c r="N205" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O205" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R205" s="1" t="n">
+        <f aca="false">K205*M205</f>
+        <v>202500</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,17 +8425,21 @@
       <c r="J206" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K206" s="0" t="n">
+      <c r="K206" s="1" t="n">
         <v>8249</v>
       </c>
-      <c r="M206" s="0" t="n">
+      <c r="M206" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="N206" s="1" t="n">
+      <c r="N206" s="3" t="n">
         <v>46234</v>
       </c>
       <c r="O206" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R206" s="1" t="n">
+        <f aca="false">K206*M206</f>
+        <v>742410</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,17 +8455,21 @@
       <c r="J207" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K207" s="0" t="n">
+      <c r="K207" s="1" t="n">
         <v>10121</v>
       </c>
-      <c r="M207" s="0" t="n">
+      <c r="M207" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="N207" s="1" t="n">
+      <c r="N207" s="3" t="n">
         <v>46081</v>
       </c>
       <c r="O207" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R207" s="1" t="n">
+        <f aca="false">K207*M207</f>
+        <v>910890</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,17 +8488,21 @@
       <c r="J208" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="K208" s="0" t="n">
+      <c r="K208" s="1" t="n">
         <v>10930</v>
       </c>
-      <c r="M208" s="0" t="n">
+      <c r="M208" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="N208" s="1" t="n">
+      <c r="N208" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O208" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R208" s="1" t="n">
+        <f aca="false">K208*M208</f>
+        <v>131160</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,17 +8518,21 @@
       <c r="J209" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K209" s="0" t="n">
+      <c r="K209" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="M209" s="0" t="n">
+      <c r="M209" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N209" s="1" t="n">
+      <c r="N209" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="O209" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R209" s="1" t="n">
+        <f aca="false">K209*M209</f>
+        <v>4250</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,17 +8551,21 @@
       <c r="J210" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K210" s="0" t="n">
+      <c r="K210" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="M210" s="0" t="n">
+      <c r="M210" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="N210" s="1" t="n">
+      <c r="N210" s="3" t="n">
         <v>46265</v>
       </c>
       <c r="O210" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R210" s="1" t="n">
+        <f aca="false">K210*M210</f>
+        <v>97500</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,6 +8581,10 @@
       <c r="O211" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="R211" s="1" t="n">
+        <f aca="false">K211*M211</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
@@ -7750,17 +8602,21 @@
       <c r="J212" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K212" s="0" t="n">
+      <c r="K212" s="1" t="n">
         <v>11765</v>
       </c>
-      <c r="M212" s="0" t="n">
+      <c r="M212" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="N212" s="1" t="n">
+      <c r="N212" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="O212" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R212" s="1" t="n">
+        <f aca="false">K212*M212</f>
+        <v>741195</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,17 +8635,21 @@
       <c r="J213" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K213" s="0" t="n">
+      <c r="K213" s="1" t="n">
         <v>11765</v>
       </c>
-      <c r="M213" s="0" t="n">
+      <c r="M213" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="N213" s="1" t="n">
+      <c r="N213" s="3" t="n">
         <v>46112</v>
       </c>
       <c r="O213" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R213" s="1" t="n">
+        <f aca="false">K213*M213</f>
+        <v>258830</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7808,17 +8668,21 @@
       <c r="J214" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K214" s="0" t="n">
+      <c r="K214" s="1" t="n">
         <v>11759</v>
       </c>
-      <c r="M214" s="0" t="n">
+      <c r="M214" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="N214" s="1" t="n">
+      <c r="N214" s="3" t="n">
         <v>46387</v>
       </c>
       <c r="O214" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R214" s="1" t="n">
+        <f aca="false">K214*M214</f>
+        <v>682022</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7834,14 +8698,24 @@
       <c r="J215" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="K215" s="0" t="n">
+      <c r="K215" s="1" t="n">
         <v>3700</v>
       </c>
-      <c r="N215" s="1" t="n">
+      <c r="N215" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="O215" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R215" s="1" t="n">
+        <f aca="false">K215*M215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R216" s="1" t="n">
+        <f aca="false">SUM(R2:R215)</f>
+        <v>135362240.49</v>
       </c>
     </row>
   </sheetData>
